--- a/data/trans_camb/P20-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.669603619074224</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.4439768692210238</v>
+        <v>-0.4439768692210244</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9135303964966726</v>
+        <v>-0.8450680955478558</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.12123194777658</v>
+        <v>-1.265347412852117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.529266669237785</v>
+        <v>-3.491647574739112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.437147270341459</v>
+        <v>-1.203250690508223</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.073807270058867</v>
+        <v>-1.04019014525556</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.555542572212418</v>
+        <v>-2.961901236838489</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4837672251364999</v>
+        <v>-0.3175432558548077</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5338424050974163</v>
+        <v>-0.240803966773116</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.724244998088086</v>
+        <v>-2.595800172408604</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.344672357237526</v>
+        <v>3.497465135499379</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.286221419587804</v>
+        <v>2.943539568637384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3947963879614049</v>
+        <v>-0.4901332921867538</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.984151903841693</v>
+        <v>5.540227766624911</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.218522925662569</v>
+        <v>6.087755678660544</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.718645405020338</v>
+        <v>6.70309927513834</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.662174724779842</v>
+        <v>3.651296355243837</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.900757265270179</v>
+        <v>3.702003111415782</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.077605111837827</v>
+        <v>2.347364886071039</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.4168982735170056</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1108605588447168</v>
+        <v>-0.110860558844717</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3520023572401421</v>
+        <v>-0.4138026641963647</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.423611042889618</v>
+        <v>-0.4509239190880684</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2048697584151407</v>
+        <v>-0.1736349793204021</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1563698560195097</v>
+        <v>-0.1468686606069156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3881554733249084</v>
+        <v>-0.4319739150990758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1100944513837067</v>
+        <v>-0.06625656127583926</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1191273769586157</v>
+        <v>-0.06424217500842637</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5798756480607671</v>
+        <v>-0.5601784272248022</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.121127662976645</v>
+        <v>2.730764749424237</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.619042173709373</v>
+        <v>2.504450950139956</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3037440555388052</v>
+        <v>0.1811214199775537</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.418606363229232</v>
+        <v>1.264348926969386</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.325026190350656</v>
+        <v>1.364336848183348</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.48603877890709</v>
+        <v>1.320966740441533</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.20922561767962</v>
+        <v>1.190931020104831</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.274685614696722</v>
+        <v>1.148117288811162</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7053852299041674</v>
+        <v>0.7920558693078371</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.926287432710406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3814265166953518</v>
+        <v>0.3814265166953532</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.384428263435345</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6540941795753475</v>
+        <v>-0.6065235423614808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.620442283187456</v>
+        <v>-2.859264109706328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.914535317106057</v>
+        <v>-2.012336404877899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.70868950517525</v>
+        <v>-1.216002770727693</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.749711045564567</v>
+        <v>-4.938482623381337</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.229262173674707</v>
+        <v>-6.640799445548066</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2586102519015961</v>
+        <v>-0.3492696359249539</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.441389714181779</v>
+        <v>-2.667195302523887</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.305200860696077</v>
+        <v>-3.315160952975581</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.651226606463611</v>
+        <v>3.495839449338773</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.109806039944937</v>
+        <v>0.8516069703753255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.807110440919485</v>
+        <v>3.603905178409275</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.075242275277506</v>
+        <v>6.655619970306731</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.775768526371359</v>
+        <v>2.977882210185807</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3383875888741164</v>
+        <v>0.8037077260488088</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.986570207280345</v>
+        <v>4.200073802094867</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.613802813377904</v>
+        <v>1.35710266981999</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.41143430804106</v>
+        <v>1.506636608598392</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2915045140682364</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1200356903004428</v>
+        <v>0.1200356903004433</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2007648531998799</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1898534349042125</v>
+        <v>-0.200710847222424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6468214562443965</v>
+        <v>-0.6854832535311728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5196963443367034</v>
+        <v>-0.5430744082521725</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1272092713613279</v>
+        <v>-0.09802726784989568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3441434058449311</v>
+        <v>-0.363048086701174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5265296346468189</v>
+        <v>-0.4965670624126282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03048259819632793</v>
+        <v>-0.04619998415808001</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2996594873569018</v>
+        <v>-0.3238795828068654</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4004608529737786</v>
+        <v>-0.4045801567061089</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.493801438311926</v>
+        <v>1.491318064903121</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6478278116263244</v>
+        <v>0.4001350400313081</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.532117420020977</v>
+        <v>1.466386659528723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6061728770661818</v>
+        <v>0.6378681039749798</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2822694223942098</v>
+        <v>0.2913889915773309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03914846849107403</v>
+        <v>0.08420926464937237</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6569175951368305</v>
+        <v>0.6706148625364479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2712767932578983</v>
+        <v>0.2406899001886214</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2178766807209229</v>
+        <v>0.2576904279689295</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5416165294590756</v>
+        <v>0.4651124393921213</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.465572977318738</v>
+        <v>-1.204840064416417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9806034653843942</v>
+        <v>-1.085592912440595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6423618562589846</v>
+        <v>0.5634456532995028</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3262300463073693</v>
+        <v>0.2558640622523009</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.746450847777866</v>
+        <v>-0.9344085417386933</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.13012322213072</v>
+        <v>1.077895132429745</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07025557250260589</v>
+        <v>0.09911461045464068</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3122715595304052</v>
+        <v>-0.1732152428176645</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.016718247245088</v>
+        <v>4.993510836706698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.663317278103492</v>
+        <v>2.938633723953546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.136976723675689</v>
+        <v>3.228763684589144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.680999135179424</v>
+        <v>5.893726795759304</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.886321187326375</v>
+        <v>5.521923339226205</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.029086692081812</v>
+        <v>4.226661927756248</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.701315410055839</v>
+        <v>4.626487579170031</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.311504204400328</v>
+        <v>3.57634155662705</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.86101541487911</v>
+        <v>2.974341859268915</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09097611716076205</v>
+        <v>0.09510754061835144</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.377103849615179</v>
+        <v>-0.3338354604068649</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3219149618848859</v>
+        <v>-0.3370551862567341</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08521854903230869</v>
+        <v>0.07785047207070063</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0314722222928531</v>
+        <v>0.02595794352429956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1315250465683033</v>
+        <v>-0.1529568964801749</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2279482511640042</v>
+        <v>0.2062156811148064</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.005181760049738903</v>
+        <v>0.0005581580120705895</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.07728370432618478</v>
+        <v>-0.04855386770442085</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.610880047016321</v>
+        <v>2.596524866118691</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.336240641862483</v>
+        <v>1.589844977487683</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.571560416367783</v>
+        <v>1.62170627832902</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.593354104864068</v>
+        <v>1.631825401352709</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.579078687353741</v>
+        <v>1.467287410217658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.104204185136838</v>
+        <v>1.145809786609774</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.447977744259927</v>
+        <v>1.419229765686137</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.028703944256512</v>
+        <v>1.068373576352315</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9080169017823946</v>
+        <v>0.9184959679088519</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.490447830049897</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.560840131479813</v>
+        <v>0.5608401314798138</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.630136823678558</v>
+        <v>-1.572071019492995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.2408636983571</v>
+        <v>-3.234487742280319</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9804628251172558</v>
+        <v>-0.9311389705964315</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2396218963392132</v>
+        <v>0.1420450667861</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.655097484985306</v>
+        <v>-2.875962066744658</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.825191345040707</v>
+        <v>-3.000968118080158</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1474134066758625</v>
+        <v>0.3345667047286363</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.112118448964672</v>
+        <v>-2.186991734693555</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.141272197065028</v>
+        <v>-1.25582272172281</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.631909667659</v>
+        <v>3.859777768163375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.383824371659179</v>
+        <v>1.478788690487701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.357449181970361</v>
+        <v>4.537211327950005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.360252930109348</v>
+        <v>6.161177970736354</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.460894085753219</v>
+        <v>2.366779702097913</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.581444201863876</v>
+        <v>1.301936232440406</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.137305679912519</v>
+        <v>4.211708727127728</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.301212670292773</v>
+        <v>1.285795265297629</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.294333064422133</v>
+        <v>2.249808576272085</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1052879582986931</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1203995792365368</v>
+        <v>0.1203995792365369</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3105037852014823</v>
+        <v>-0.2894940088272946</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.577195412833807</v>
+        <v>-0.543740724094312</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1972848953422437</v>
+        <v>-0.1777774110168324</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02405880476035909</v>
+        <v>-0.00683500918006294</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4214633124206713</v>
+        <v>-0.4537848404800131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4412884295142727</v>
+        <v>-0.4521927198128546</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0186589543856963</v>
+        <v>0.04737619081038962</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3829943961276639</v>
+        <v>-0.3949798363075188</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2048421823596764</v>
+        <v>-0.2211873695045333</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.154223077694734</v>
+        <v>1.271505988807443</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4944957035629549</v>
+        <v>0.5515775871081472</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.404610136534661</v>
+        <v>1.519576447799686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.672394130899404</v>
+        <v>1.56109137457429</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6926606034123962</v>
+        <v>0.6363108071879634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4182327680400053</v>
+        <v>0.3797741269846541</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.088691953358392</v>
+        <v>1.150839942161339</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3570014322499843</v>
+        <v>0.3380528858350214</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6372724266467179</v>
+        <v>0.6139782937531144</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.026879209467801</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.6451350389699129</v>
+        <v>-0.6451350389699108</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.053970418043858</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.920237008489138</v>
+        <v>-1.634157520067376</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.240317386318776</v>
+        <v>-1.050538302408593</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.007991123519668561</v>
+        <v>0.05053026822290361</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.618834980593917</v>
+        <v>-2.897771296174434</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.590914368735067</v>
+        <v>-4.300047855719703</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.723434985369904</v>
+        <v>-3.756192949360487</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.600461269707131</v>
+        <v>-1.242169073014501</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.623220994896118</v>
+        <v>-1.750782373736908</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.7780765894786672</v>
+        <v>-0.8924734258289713</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.545687375061843</v>
+        <v>4.517486764560344</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.28358293291535</v>
+        <v>5.212537216177266</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.269601123095208</v>
+        <v>6.149329217276194</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.047837498792752</v>
+        <v>3.998089116056089</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.686660758921094</v>
+        <v>1.751433302160052</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.95559827001235</v>
+        <v>2.080501241351415</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.274233124012185</v>
+        <v>3.238536527659894</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.749512137946673</v>
+        <v>2.730412170893551</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.246153666347536</v>
+        <v>3.165972465067288</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1681451963995063</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.105636920907201</v>
+        <v>-0.1056369209072007</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1893453468334469</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2679622287420668</v>
+        <v>-0.2618467749664819</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2117159542692778</v>
+        <v>-0.193704936413688</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02132631341200348</v>
+        <v>-0.01349435256659204</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.349309407930126</v>
+        <v>-0.367898168622721</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5608146553696248</v>
+        <v>-0.5534218199889436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4523445230861793</v>
+        <v>-0.4481619573791243</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2293206546147273</v>
+        <v>-0.1856580784984015</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.244071983193024</v>
+        <v>-0.2585488495593443</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.121025359308643</v>
+        <v>-0.1373550678044363</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.30411838978897</v>
+        <v>1.299768275812701</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.570579232743787</v>
+        <v>1.432338389562567</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.874329041907947</v>
+        <v>1.751216112450373</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9064135550927758</v>
+        <v>0.8873451830442221</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.385433902966293</v>
+        <v>0.4278133003708282</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4528601783863886</v>
+        <v>0.4904886895933365</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7280791324789406</v>
+        <v>0.7502793912578778</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5799131339700183</v>
+        <v>0.6024226506849867</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7409045834950886</v>
+        <v>0.724825594818394</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>3.142821379809364</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.481150001169087</v>
+        <v>1.481150001169086</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.911868322031778</v>
@@ -1734,7 +1734,7 @@
         <v>1.025622952239756</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.7233646619716858</v>
+        <v>-0.7233646619716844</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.03939445986565</v>
+        <v>-3.05879462174681</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.436429441921059</v>
+        <v>-2.003586877264466</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.333064447345028</v>
+        <v>-2.597613270814443</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.350995795237471</v>
+        <v>-3.217297956073802</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.728139751120043</v>
+        <v>-5.125453885196682</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.273276973865366</v>
+        <v>-6.176521217204376</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.669170936427802</v>
+        <v>-1.719397891550328</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.913680090981275</v>
+        <v>-2.154713639965359</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.396304569290567</v>
+        <v>-3.182155450910028</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.278120281556145</v>
+        <v>6.300302356215886</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.967420494684045</v>
+        <v>7.835327319071967</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.198192228690196</v>
+        <v>4.929886749287784</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.158068165337927</v>
+        <v>5.069062219010459</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.989098760839922</v>
+        <v>3.257636020478193</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.3764489637749781</v>
+        <v>0.3300204490927831</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.069418301870654</v>
+        <v>4.628166194085034</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.964505258875043</v>
+        <v>4.272040118306914</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.806374492790945</v>
+        <v>2.001452385211705</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.4020703848381512</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1894878769754348</v>
+        <v>0.1894878769754346</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1063690945327631</v>
@@ -1839,7 +1839,7 @@
         <v>0.1247020188552037</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.08795145771590951</v>
+        <v>-0.08795145771590934</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3137716347081674</v>
+        <v>-0.3348469382610655</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1464798030353158</v>
+        <v>-0.2058935707752407</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2115483955190596</v>
+        <v>-0.2576742966144832</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3215009080665347</v>
+        <v>-0.317664606777998</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.471857274710038</v>
+        <v>-0.4877692230757505</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5620423494289205</v>
+        <v>-0.5547570078242847</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1736945599485537</v>
+        <v>-0.1794752739239551</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1949363922747586</v>
+        <v>-0.2187733696223037</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3367965725233977</v>
+        <v>-0.3267583085565318</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.026912760598621</v>
+        <v>1.126692843728808</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.390160181953063</v>
+        <v>1.355808387185681</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9514465552442957</v>
+        <v>0.8790016300851368</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7914534624910102</v>
+        <v>0.7747197035645642</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4528598607295082</v>
+        <v>0.5107698396213751</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06863759044615027</v>
+        <v>0.06727726126312217</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.587210623998584</v>
+        <v>0.6856558916976655</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5886661558407605</v>
+        <v>0.6500708284271408</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2841765421570678</v>
+        <v>0.2990560171225042</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-0.8190480202454484</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.239524230514125</v>
+        <v>1.239524230514123</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.538016272305659</v>
@@ -1939,7 +1939,7 @@
         <v>0.2839325675519658</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.3657109080490772</v>
+        <v>-0.3657109080490786</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.960554338412281</v>
@@ -1948,7 +1948,7 @@
         <v>-0.1502499084693756</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.2689487779638108</v>
+        <v>0.2689487779638094</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.6587661042471133</v>
+        <v>-0.6449103113100337</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.602509548159397</v>
+        <v>-5.976459637741146</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.434303488936235</v>
+        <v>-4.152365279615072</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.191844369717423</v>
+        <v>-3.242236064661664</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.598291675948036</v>
+        <v>-4.168621910520228</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.02847191412777</v>
+        <v>-4.528532080460917</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5861416196962203</v>
+        <v>-1.54672875281272</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.606693438928218</v>
+        <v>-3.606478675260114</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.367818758828837</v>
+        <v>-3.308749004057964</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.39461927192767</v>
+        <v>11.80763791897602</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.499604739854282</v>
+        <v>3.739358249114262</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.844949531753657</v>
+        <v>5.899150812527905</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.412879197185963</v>
+        <v>6.615144630764461</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.353218813480637</v>
+        <v>5.500773701297082</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.630707773123403</v>
+        <v>3.222019936698031</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.620302384132554</v>
+        <v>6.677923940831593</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.424340996293914</v>
+        <v>3.441988555979218</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.211083626001193</v>
+        <v>2.959976816171168</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.08810059588769197</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1333289631697075</v>
+        <v>0.1333289631697074</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1560975810683358</v>
@@ -2044,7 +2044,7 @@
         <v>0.02881711187290709</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.03711702479661436</v>
+        <v>-0.0371170247966145</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3071671709161017</v>
@@ -2053,7 +2053,7 @@
         <v>-0.0155889181685117</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.02790431311346603</v>
+        <v>0.02790431311346588</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.09980947122909577</v>
+        <v>-0.09626787881010766</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4741716810720026</v>
+        <v>-0.4940857125166855</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2971988059059959</v>
+        <v>-0.3289951845499864</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2499098871418772</v>
+        <v>-0.2664982258569187</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3701268731632608</v>
+        <v>-0.370003380181952</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3231007123591002</v>
+        <v>-0.362347335312016</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05728626612426004</v>
+        <v>-0.1390905773955088</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3212178619365338</v>
+        <v>-0.3168928292361932</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2738790065758536</v>
+        <v>-0.2794480858521223</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.641244147392642</v>
+        <v>1.863228775920186</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7774405256560519</v>
+        <v>0.5847151083662567</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.990040191606227</v>
+        <v>0.8987994612793101</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9326051387591116</v>
+        <v>0.9865561242581717</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7071666165136091</v>
+        <v>0.7485830352453146</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5136488117866083</v>
+        <v>0.4363381280879814</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8481362358755422</v>
+        <v>0.8491603950085718</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4479488651049052</v>
+        <v>0.4641720098702294</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4047344357435599</v>
+        <v>0.3816947306982563</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.9238388574517676</v>
+        <v>0.8761278006563514</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4016931201311996</v>
+        <v>-0.2678256976510475</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.5128151527262437</v>
+        <v>0.5896098112064895</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.8975394596515949</v>
+        <v>0.8142461410005066</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.8663983529119935</v>
+        <v>-0.9783516162659831</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.091361465179537</v>
+        <v>-1.958750729226245</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.195209371301932</v>
+        <v>1.10131323175092</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.2540029768651156</v>
+        <v>-0.3543670949073535</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3912284724255145</v>
+        <v>-0.3678734993612643</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.106223564154962</v>
+        <v>2.986637493845779</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.652622485733624</v>
+        <v>1.75259975298263</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.77517843027885</v>
+        <v>2.769446258451203</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.593712566078363</v>
+        <v>3.525665063595874</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.657838600435972</v>
+        <v>1.658810926217794</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.319456233589101</v>
+        <v>0.3923954465816842</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.974816109480037</v>
+        <v>2.913407882174574</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.371538605887237</v>
+        <v>1.404375272950499</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.177251632229483</v>
+        <v>1.275626170482527</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2048343600553202</v>
+        <v>0.184455566941459</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.09210137344280392</v>
+        <v>-0.06185823067815157</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1144154264731389</v>
+        <v>0.1313979123004469</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1098688042160638</v>
+        <v>0.1025506832290193</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1109765304136497</v>
+        <v>-0.1198789496149468</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2631815108504981</v>
+        <v>-0.2428624272652253</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1980362569555047</v>
+        <v>0.178269596516738</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.04009524913094058</v>
+        <v>-0.05842791182549751</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.06504752558084687</v>
+        <v>-0.05926188385976047</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8760787470217479</v>
+        <v>0.8122371660817608</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4431387956525307</v>
+        <v>0.4951561897579455</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7722856218009463</v>
+        <v>0.7692963336955654</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5229488784313896</v>
+        <v>0.528012928700418</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2453619441909708</v>
+        <v>0.2451813183757683</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.05049154757805267</v>
+        <v>0.05971427876361023</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.550378268990973</v>
+        <v>0.5508480716251595</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2593025559318433</v>
+        <v>0.2652220360645198</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2140639744142942</v>
+        <v>0.2320609851290235</v>
       </c>
     </row>
     <row r="52">
